--- a/ผลการประเมินความพึงพอใจ.xlsx
+++ b/ผลการประเมินความพึงพอใจ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-003\Desktop\Books-5-Filnal-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CEBBF4-E48E-41E5-8607-3786971001C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F294F-009C-4DCF-BC23-910C2FEF9195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D22AF54-B08C-462B-8C29-ED1A51322FBC}"/>
+    <workbookView xWindow="3630" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{8D22AF54-B08C-462B-8C29-ED1A51322FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="ผลการประเมิน" sheetId="1" r:id="rId1"/>
@@ -324,57 +324,9 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,6 +346,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9611E-B506-4C20-9325-4E68B9945EED}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.2"/>
@@ -733,48 +733,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="18" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -789,15 +789,15 @@
       <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="6">
         <v>5</v>
       </c>
@@ -813,69 +813,73 @@
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="N3" s="30" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="33">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="P3" s="33">
-        <v>0.34</v>
-      </c>
-      <c r="Q3" s="31" t="str">
+      <c r="O3" s="17">
+        <f>I9</f>
+        <v>4.0750000000000002</v>
+      </c>
+      <c r="P3" s="17">
+        <f>K9</f>
+        <v>0.65917709657506518</v>
+      </c>
+      <c r="Q3" s="15" t="str">
         <f>IF(I9&gt;=4.51,"มากที่สุด",IF(I9&gt;=3.51,"มาก",IF(I9&gt;=2.51,"ปานกลาง",IF(I9&gt;=1.51,"น้อย",IF(I9&gt;=1,"น้อยที่สุด")))))</f>
         <v>มาก</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="N4" s="30" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+      <c r="N4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="33">
-        <v>3.75</v>
-      </c>
-      <c r="P4" s="33">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q4" s="31" t="str">
+      <c r="O4" s="17">
+        <f>I15</f>
+        <v>4</v>
+      </c>
+      <c r="P4" s="17">
+        <f>K15</f>
+        <v>0.67177995891823661</v>
+      </c>
+      <c r="Q4" s="15" t="str">
         <f>IF(I15&gt;=4.51,"มากที่สุด",IF(I15&gt;=3.51,"มาก",IF(I15&gt;=2.51,"ปานกลาง",IF(I15&gt;=1.51,"น้อย",IF(I15&gt;=1,"น้อยที่สุด")))))</f>
         <v>มาก</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="10">
         <v>5</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="10">
         <f>(T4*100/T6)</f>
         <v>25</v>
       </c>
@@ -888,13 +892,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -904,44 +908,46 @@
       </c>
       <c r="H5" s="5">
         <f>SUM(C5:G5)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I5" s="8">
         <f>((5*C5)+(4*D5)+(3*E5)+(2*F5)+(1*G5))/H5</f>
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J5" s="8">
         <f>((5*C5)+(4*D5)+(3*E5)+(2*F5)+(1*G5))*100/(H5*5)</f>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K5" s="8">
         <f>SQRT(((25*C5)+(16*D5)+(9*E5)+(4*F5)+(1*G5))/H5-(I5^2))</f>
-        <v>0.48989794855663404</v>
+        <v>0.7000000000000014</v>
       </c>
       <c r="L5" s="5" t="str">
         <f>IF(I5&gt;=4.51,"มากที่สุด",IF(I5&gt;=3.51,"มาก",IF(I5&gt;=2.51,"ปานกลาง",IF(I5&gt;=1.51,"น้อย",IF(I5&gt;=1,"น้อยที่สุด")))))</f>
         <v>มาก</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="P5" s="33">
-        <v>0.54</v>
-      </c>
-      <c r="Q5" s="31" t="str">
+      <c r="O5" s="17">
+        <f>I21</f>
+        <v>4.125</v>
+      </c>
+      <c r="P5" s="17">
+        <f>K21</f>
+        <v>0.68411898418754435</v>
+      </c>
+      <c r="Q5" s="15" t="str">
         <f>IF(I21&gt;=4.51,"มากที่สุด",IF(I21&gt;=3.51,"มาก",IF(I21&gt;=2.51,"ปานกลาง",IF(I21&gt;=1.51,"น้อย",IF(I21&gt;=1,"น้อยที่สุด")))))</f>
         <v>มาก</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="10">
         <v>15</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="10">
         <f>(T5*100/T6)</f>
         <v>75</v>
       </c>
@@ -954,13 +960,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -970,45 +976,45 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" ref="H6:H8" si="0">SUM(C6:G6)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" ref="I6:I8" si="1">((5*C6)+(4*D6)+(3*E6)+(2*F6)+(1*G6))/H6</f>
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:J8" si="2">((5*C6)+(4*D6)+(3*E6)+(2*F6)+(1*G6))*100/(H6*5)</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ref="K6:K8" si="3">SQRT(((25*C6)+(16*D6)+(9*E6)+(4*F6)+(1*G6))/H6-(I6^2))</f>
-        <v>0</v>
+        <v>0.73993242934743553</v>
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" ref="L6:L9" si="4">IF(I6&gt;=4.51,"มากที่สุด",IF(I6&gt;=3.51,"มาก",IF(I6&gt;=2.51,"ปานกลาง",IF(I6&gt;=1.51,"น้อย",IF(I6&gt;=1,"น้อยที่สุด")))))</f>
         <v>มาก</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="16">
         <f>AVERAGE(O3:O5)</f>
-        <v>4.0333333333333341</v>
-      </c>
-      <c r="P6" s="32">
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="P6" s="16">
         <f>AVERAGE(P3:P5)</f>
-        <v>0.48333333333333334</v>
-      </c>
-      <c r="Q6" s="29" t="s">
+        <v>0.6716920132269486</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="27" t="s">
+      <c r="S6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="11">
         <v>20</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1020,13 +1026,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -1036,19 +1042,19 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="3"/>
-        <v>0.40000000000000019</v>
+        <v>0.62449979983984027</v>
       </c>
       <c r="L7" s="5" t="str">
         <f t="shared" si="4"/>
@@ -1063,13 +1069,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -1079,19 +1085,19 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="3"/>
-        <v>0.48989794855663404</v>
+        <v>0.57227615711298341</v>
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="4"/>
@@ -1099,21 +1105,21 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="7">
         <f>SUM(C5:C8)</f>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" ref="D9:H9" si="5">SUM(D5:D8)</f>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="5"/>
@@ -1125,19 +1131,19 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I9" s="9">
         <f>AVERAGE(I5:I8)</f>
-        <v>4.1500000000000004</v>
+        <v>4.0750000000000002</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" ref="J9:K9" si="6">AVERAGE(J5:J8)</f>
-        <v>83</v>
+        <v>81.5</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="6"/>
-        <v>0.34494897427831706</v>
+        <v>0.65917709657506518</v>
       </c>
       <c r="L9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -1145,20 +1151,20 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1168,13 +1174,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -1184,19 +1190,19 @@
       </c>
       <c r="H11" s="5">
         <f>SUM(C11:G11)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8">
         <f>((5*C11)+(4*D11)+(3*E11)+(2*F11)+(1*G11))/H11</f>
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="J11" s="8">
         <f>((5*C11)+(4*D11)+(3*E11)+(2*F11)+(1*G11))*100/(H11*5)</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K11" s="8">
         <f>SQRT(((25*C11)+(16*D11)+(9*E11)+(4*F11)+(1*G11))/H11-(I11^2))</f>
-        <v>0.79999999999999927</v>
+        <v>0.73993242934743553</v>
       </c>
       <c r="L11" s="5" t="str">
         <f>IF(I11&gt;=4.51,"มากที่สุด",IF(I11&gt;=3.51,"มาก",IF(I11&gt;=2.51,"ปานกลาง",IF(I11&gt;=1.51,"น้อย",IF(I11&gt;=1,"น้อยที่สุด")))))</f>
@@ -1211,13 +1217,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -1227,23 +1233,23 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" ref="H12:H14" si="7">SUM(C12:G12)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ref="I12:I14" si="8">((5*C12)+(4*D12)+(3*E12)+(2*F12)+(1*G12))/H12</f>
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J14" si="9">((5*C12)+(4*D12)+(3*E12)+(2*F12)+(1*G12))*100/(H12*5)</f>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K14" si="10">SQRT(((25*C12)+(16*D12)+(9*E12)+(4*F12)+(1*G12))/H12-(I12^2))</f>
-        <v>0.48989794855663765</v>
+        <v>0.67823299831252748</v>
       </c>
       <c r="L12" s="5" t="str">
-        <f t="shared" ref="L12:L15" si="11">IF(I12&gt;=4.51,"มากที่สุด",IF(I12&gt;=3.51,"มาก",IF(I12&gt;=2.51,"ปานกลาง",IF(I12&gt;=1.51,"น้อย",IF(I12&gt;=1,"น้อยที่สุด")))))</f>
-        <v>ปานกลาง</v>
+        <f t="shared" ref="L12:L14" si="11">IF(I12&gt;=4.51,"มากที่สุด",IF(I12&gt;=3.51,"มาก",IF(I12&gt;=2.51,"ปานกลาง",IF(I12&gt;=1.51,"น้อย",IF(I12&gt;=1,"น้อยที่สุด")))))</f>
+        <v>มาก</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1254,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="C13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
         <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -1270,19 +1276,19 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="8"/>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" si="9"/>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="10"/>
-        <v>0.48989794855663404</v>
+        <v>0.59999999999999953</v>
       </c>
       <c r="L13" s="5" t="str">
         <f t="shared" si="11"/>
@@ -1297,13 +1303,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E14" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -1313,19 +1319,19 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="8"/>
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="10"/>
-        <v>0.48989794855663404</v>
+        <v>0.66895440801298378</v>
       </c>
       <c r="L14" s="5" t="str">
         <f t="shared" si="11"/>
@@ -1333,21 +1339,21 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="7">
         <f>SUM(C11:C14)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ref="D15:H15" si="12">SUM(D11:D14)</f>
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="12"/>
@@ -1359,19 +1365,19 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I15" s="9">
         <f>AVERAGE(I11:I14)</f>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" ref="J15:K15" si="13">AVERAGE(J11:J14)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="13"/>
-        <v>0.56742346141747624</v>
+        <v>0.67177995891823661</v>
       </c>
       <c r="L15" s="7" t="str">
         <f>IF(I15&gt;=4.51,"มากที่สุด",IF(I15&gt;=3.51,"มาก",IF(I15&gt;=2.51,"ปานกลาง",IF(I15&gt;=1.51,"น้อย",IF(I15&gt;=1,"น้อยที่สุด")))))</f>
@@ -1379,20 +1385,20 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1402,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E17" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -1418,7 +1424,7 @@
       </c>
       <c r="H17" s="5">
         <f>SUM(C17:G17)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I17" s="8">
         <f>((5*C17)+(4*D17)+(3*E17)+(2*F17)+(1*G17))/H17</f>
@@ -1430,7 +1436,7 @@
       </c>
       <c r="K17" s="8">
         <f>SQRT(((25*C17)+(16*D17)+(9*E17)+(4*F17)+(1*G17))/H17-(I17^2))</f>
-        <v>0.63245553203367477</v>
+        <v>0.77459666924148429</v>
       </c>
       <c r="L17" s="5" t="str">
         <f>IF(I17&gt;=4.51,"มากที่สุด",IF(I17&gt;=3.51,"มาก",IF(I17&gt;=2.51,"ปานกลาง",IF(I17&gt;=1.51,"น้อย",IF(I17&gt;=1,"น้อยที่สุด")))))</f>
@@ -1445,13 +1451,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E18" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -1461,19 +1467,19 @@
       </c>
       <c r="H18" s="5">
         <f t="shared" ref="H18:H20" si="14">SUM(C18:G18)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" ref="I18:I20" si="15">((5*C18)+(4*D18)+(3*E18)+(2*F18)+(1*G18))/H18</f>
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:J20" si="16">((5*C18)+(4*D18)+(3*E18)+(2*F18)+(1*G18))*100/(H18*5)</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ref="K18:K20" si="17">SQRT(((25*C18)+(16*D18)+(9*E18)+(4*F18)+(1*G18))/H18-(I18^2))</f>
-        <v>0.63245553203367477</v>
+        <v>0.73993242934743553</v>
       </c>
       <c r="L18" s="5" t="str">
         <f t="shared" ref="L18:L21" si="18">IF(I18&gt;=4.51,"มากที่สุด",IF(I18&gt;=3.51,"มาก",IF(I18&gt;=2.51,"ปานกลาง",IF(I18&gt;=1.51,"น้อย",IF(I18&gt;=1,"น้อยที่สุด")))))</f>
@@ -1488,13 +1494,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" s="5">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
         <v>4</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -1504,19 +1510,19 @@
       </c>
       <c r="H19" s="5">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="15"/>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" si="16"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" si="17"/>
-        <v>0.40000000000000019</v>
+        <v>0.63245553203367477</v>
       </c>
       <c r="L19" s="5" t="str">
         <f t="shared" si="18"/>
@@ -1531,13 +1537,13 @@
         <v>24</v>
       </c>
       <c r="C20" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
@@ -1547,19 +1553,19 @@
       </c>
       <c r="H20" s="5">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="15"/>
-        <v>4.5999999999999996</v>
+        <v>4.55</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" si="16"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" si="17"/>
-        <v>0.48989794855663765</v>
+        <v>0.58949130612758294</v>
       </c>
       <c r="L20" s="5" t="str">
         <f t="shared" si="18"/>
@@ -1567,21 +1573,21 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="7">
         <f>SUM(C17:C20)</f>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" ref="D21:H21" si="19">SUM(D17:D20)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="19"/>
@@ -1593,19 +1599,19 @@
       </c>
       <c r="H21" s="7">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I21" s="9">
         <f>AVERAGE(I17:I20)</f>
-        <v>4.1999999999999993</v>
+        <v>4.125</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" ref="J21:K21" si="20">AVERAGE(J17:J20)</f>
-        <v>84</v>
+        <v>82.5</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="20"/>
-        <v>0.53870225315599685</v>
+        <v>0.68411898418754435</v>
       </c>
       <c r="L21" s="7" t="str">
         <f t="shared" si="18"/>
